--- a/doc/盤點SourceCode第三方套件_interface.xlsx
+++ b/doc/盤點SourceCode第三方套件_interface.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="176">
   <si>
     <t>套件名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,209 +55,2190 @@
     <t>驗證碼</t>
   </si>
   <si>
+    <t>antlr-2.7.7.jar</t>
+  </si>
+  <si>
+    <t>axiom-api-1.2.13.jar</t>
+  </si>
+  <si>
+    <t>axiom-dom-1.2.13.jar</t>
+  </si>
+  <si>
+    <t>axiom-dom-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>axiom-impl-1.2.13.jar</t>
+  </si>
+  <si>
+    <t>axiom-impl-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>axis2-adb-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>axis2-adb-codegen-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>axis2-ant-plugin-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>axis2-codegen-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>axis2-java2wsdl-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>axis2-jaxbri-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>axis2-jaxws-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>axis2-jibx-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>axis2-kernel-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>axis2-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>axis2-metadata-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>axis2-mtompolicy-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>axis2-saaj-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>axis2-soapmonitor-servlet-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>axis2-spring-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>axis2-transport-http-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>axis2-transport-local-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>axis2-xmlbeans-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>commons-cli-1.2.jar</t>
+  </si>
+  <si>
+    <t>commons-cli-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>commons-codec-1.3.jar</t>
+  </si>
+  <si>
+    <t>commons-codec-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>commons-discovery-0.2.jar</t>
+  </si>
+  <si>
+    <t>commons-fileupload-1.2.jar</t>
+  </si>
+  <si>
+    <t>commons-fileupload-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>commons-httpclient-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>commons-io-1.4.jar</t>
+  </si>
+  <si>
+    <t>commons-io-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>commons-logging.jar</t>
+  </si>
+  <si>
+    <t>commons-logging-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>geronimo-stax-api_1.0_spec-1.0.1.jar</t>
+  </si>
+  <si>
+    <t>httpcore-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>jt400.jar</t>
+  </si>
+  <si>
+    <t>log4j-1.2.15.jar</t>
+  </si>
+  <si>
+    <t>log4j-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>mail-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>neethi-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>saaj.jar</t>
+  </si>
+  <si>
+    <t>woden-api-1.0M9.jar</t>
+  </si>
+  <si>
+    <t>woden-api-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>woden-impl-commons-1.0M9.jar</t>
+  </si>
+  <si>
+    <t>woden-impl-commons-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>woden-impl-dom-1.0M9.jar</t>
+  </si>
+  <si>
+    <t>woden-impl-dom-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>wsdl4j.jar</t>
+  </si>
+  <si>
+    <t>wsdl4j-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>wstx-asl-3.2.9.jar</t>
+  </si>
+  <si>
+    <t>wstx-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>xmlbeans-2.3.0.jar</t>
+  </si>
+  <si>
+    <t>xmlbeans-LICENSE.txt</t>
+  </si>
+  <si>
+    <t>XmlSchema-1.4.7.jar</t>
+  </si>
+  <si>
+    <t>XmlSchema-LICENSE.txt</t>
+  </si>
+  <si>
     <t>activation-1.1.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JavaBeans Activation Framework (JAF)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的一個 JAR 檔案，主要用於 Java 程式中處理不同類型的資料內容</t>
+    </r>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANTLR（Another Tool for Language Recognition），用於構建語言辨識器、編譯器等，支援語法和詞法分析。</t>
+  </si>
+  <si>
+    <t>2.7.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axiom 是一個高效的、記憶體友好的 XML 物件模型（OM），用於處理 XML 資料。</t>
+  </si>
+  <si>
+    <t>1.2.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axiom 的 DOM 支援模組，提供與傳統 DOM API 的相容性。</t>
+  </si>
+  <si>
+    <t>1.2.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axiom 的核心實作，提供 XML 物件模型的具體功能。</t>
+  </si>
+  <si>
+    <t>1.2.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Axis 是一個用於構建 SOAP 網路服務的框架，支援 WSDL 和多種傳輸協定。</t>
+  </si>
+  <si>
+    <t>Apache Axis2 的 ADB（Axis Data Binding）模組，用於將 XML 資料綁定到 Java 物件。</t>
+  </si>
+  <si>
+    <t>1.6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axis2 的代碼生成工具，根據 WSDL 生成 Java 類別。</t>
+  </si>
+  <si>
+    <t>1.6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Commons CLI，提供解析命令列參數的 API，方便開發命令列應用程式。</t>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Commons Codec，提供常用的編解碼功能，如 Base64、URL 編碼等。</t>
+  </si>
+  <si>
+    <t>1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Commons Discovery，提供自動發現和載入實作的機制，常用於服務定位。</t>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Commons FileUpload，支援在網頁應用程式中處理檔案上傳功能。</t>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Commons HttpClient，用於執行 HTTP 操作的客戶端庫，支援 HTTP 協定的各種功能。</t>
+  </si>
+  <si>
+    <t>3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Commons IO，提供對 I/O 功能的支援，包括讀寫檔案、資料流操作等。</t>
+  </si>
+  <si>
+    <t>1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Commons Logging，提供通用的日誌記錄介面，支援多種日誌框架。</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geronimo 的 StAX API 規範實作，提供基於拉式解析的 XML 處理 API。</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache HttpCore，提供低階的 HTTP 傳輸功能，支援客戶端和伺服器端的協定實作。</t>
+  </si>
+  <si>
+    <t>4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Log4j，是一個用於記錄日誌訊息的框架，支援多種日誌目的地和格式。</t>
+  </si>
+  <si>
+    <t>1.2.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaMail API，提供發送和接收電子郵件的功能，支援多種郵件協定。</t>
+  </si>
+  <si>
+    <t>1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Neethi，用於處理 Web 服務的政策（Policy），如 WS-SecurityPolicy。</t>
+  </si>
+  <si>
+    <t>3.0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAAJ（SOAP with Attachments API for Java），提供在 Java 中處理 SOAP 訊息的 API。</t>
+  </si>
+  <si>
+    <t>Apache Woden，提供 WSDL 2.0 的解析和處理功能。</t>
+  </si>
+  <si>
+    <t>1.0M9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSDL4J（WSDL for Java），用於讀取、寫入和操作 WSDL 文件的 API。</t>
+  </si>
+  <si>
+    <t>Woodstox，是一個高效的 XML 處理器，支援 StAX（Streaming API for XML）。</t>
+  </si>
+  <si>
+    <t>3.2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache XMLBeans，提供將 XML Schema 映射到 Java 類別的功能，方便 XML 資料的處理。</t>
+  </si>
+  <si>
+    <t>2.3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache XmlSchema，用於解析和處理 XML Schema 定義，支援 Schema 的建構和檢查。</t>
+  </si>
+  <si>
+    <t>1.4.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>activation-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>antlr-2.7.7.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JavaBeans Activation Framework (JAF)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 相關的授權文件，通常包含 JAF 的版權聲明、授權條款或使用規範。</t>
+    </r>
   </si>
   <si>
     <t>antlr-2-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>axiom-api-1.2.13.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ANTLR 2.7.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 相關的授權文件，包含 ANTLR 的版權聲明與授權條款。</t>
+    </r>
   </si>
   <si>
     <t>axiom-api-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>axiom-dom-1.2.13.jar</t>
-  </si>
-  <si>
-    <t>axiom-dom-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>axiom-impl-1.2.13.jar</t>
-  </si>
-  <si>
-    <t>axiom-impl-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>axis2-adb-1.6.2.jar</t>
-  </si>
-  <si>
-    <t>axis2-adb-codegen-1.6.2.jar</t>
-  </si>
-  <si>
-    <t>axis2-ant-plugin-1.6.2.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Axiom API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 相關的授權文件，通常包含 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache Axiom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的版權聲明和授權條款。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axiom DOM 模組</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 相關的授權文件，通常包含 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache License 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的內容。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axiom 實作模組</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 相關的授權文件，通常依據 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache License 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>1.6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axis2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的一個 Ant 插件模組，用於在建置過程中生成 Web 服務相關的代碼。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>axis2-clustering-1.6.2.jar</t>
-  </si>
-  <si>
-    <t>axis2-codegen-1.6.2.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用於分散式系統中，支援大型 Web 服務應用的可擴展性需求。</t>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axis2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的代碼生成模組，該模組對於基於 Axis2 的 SOAP Web 服務開發至關重要，能夠高效地生成所需的代碼結構。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>axis2-corba-1.6.2.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axis2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 提供的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CORBA 整合模組</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，此模組主要用於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CORBA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>技術與</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Axis2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>架構相結合的場景，支援分散式系統間的高效整合。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>axis2-fastinfoset-1.6.2.jar</t>
-  </si>
-  <si>
-    <t>axis2-java2wsdl-1.6.2.jar</t>
-  </si>
-  <si>
-    <t>axis2-jaxbri-1.6.2.jar</t>
-  </si>
-  <si>
-    <t>axis2-jaxws-1.6.2.jar</t>
-  </si>
-  <si>
-    <t>axis2-jibx-1.6.2.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axis2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fast Infoset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 支援模組，此模組適用於需要高效處理 XML 資料的 Web 服務，特別是在大數據量或頻繁傳輸的場景中。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axis2 中的一個工具套件，主要用途是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>支援將 Java 類別轉換成 WSDL (Web Services Description Language)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axis2 框架中的一個組件，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用於支援 JAXB (Java Architecture for XML Binding)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的功能，特別是在 Axis2 中處理 XML 與 Java 類別之間的轉換。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axis2 框架中的一個組件，主要用途是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>支援 JAX-WS (Java API for XML Web Services)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 標準的功能。</t>
+    </r>
+  </si>
+  <si>
+    <t>Axis2 的核心元件，提供基本的網路服務處理功能。此模組是 Axis2 與標準 JAX-WS API 之間的橋樑，使得開發人員能夠使用標準化的工具和註解快速開發 SOAP Web 服務。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>axis2-LICENSE.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是 Apache Axis2 專案的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>授權文件</t>
+    </r>
   </si>
   <si>
     <t>axis2-json-1.6.2.jar</t>
-  </si>
-  <si>
-    <t>axis2-kernel-1.6.2.jar</t>
-  </si>
-  <si>
-    <t>axis2-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>axis2-metadata-1.6.2.jar</t>
-  </si>
-  <si>
-    <t>axis2-mtompolicy-1.6.2.jar</t>
-  </si>
-  <si>
-    <t>axis2-saaj-1.6.2.jar</t>
-  </si>
-  <si>
-    <t>axis2-soapmonitor-servlet-1.6.2.jar</t>
-  </si>
-  <si>
-    <t>axis2-spring-1.6.2.jar</t>
-  </si>
-  <si>
-    <t>axis2-transport-http-1.6.2.jar</t>
-  </si>
-  <si>
-    <t>axis2-transport-local-1.6.2.jar</t>
-  </si>
-  <si>
-    <t>axis2-xmlbeans-1.6.2.jar</t>
-  </si>
-  <si>
-    <t>commons-cli-1.2.jar</t>
-  </si>
-  <si>
-    <t>commons-cli-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>commons-codec-1.3.jar</t>
-  </si>
-  <si>
-    <t>commons-codec-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>commons-discovery-0.2.jar</t>
-  </si>
-  <si>
-    <t>commons-fileupload-1.2.jar</t>
-  </si>
-  <si>
-    <t>commons-fileupload-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>commons-httpclient-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>commons-io-1.4.jar</t>
-  </si>
-  <si>
-    <t>commons-io-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>commons-logging.jar</t>
-  </si>
-  <si>
-    <t>commons-logging-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>geronimo-stax-api_1.0_spec-1.0.1.jar</t>
-  </si>
-  <si>
-    <t>httpcore-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>jt400.jar</t>
-  </si>
-  <si>
-    <t>log4j-1.2.15.jar</t>
-  </si>
-  <si>
-    <t>log4j-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>mail-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>neethi-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>saaj.jar</t>
-  </si>
-  <si>
-    <t>woden-api-1.0M9.jar</t>
-  </si>
-  <si>
-    <t>woden-api-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>woden-impl-commons-1.0M9.jar</t>
-  </si>
-  <si>
-    <t>woden-impl-commons-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>woden-impl-dom-1.0M9.jar</t>
-  </si>
-  <si>
-    <t>woden-impl-dom-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>wsdl4j.jar</t>
-  </si>
-  <si>
-    <t>wsdl4j-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>wstx-asl-3.2.9.jar</t>
-  </si>
-  <si>
-    <t>wstx-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>xmlbeans-2.3.0.jar</t>
-  </si>
-  <si>
-    <t>xmlbeans-LICENSE.txt</t>
-  </si>
-  <si>
-    <t>XmlSchema-1.4.7.jar</t>
-  </si>
-  <si>
-    <t>XmlSchema-LICENSE.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axis2 框架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 中的一個組件，主要用途是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>支援 JSON 格式的 Web 服務</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，允許透過 JSON 進行數據交換。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axis2 框架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 中的一個組件，主要用途是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>支援 JiBX (XML 資料綁定)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，讓開發者可以高效地在 Java 物件與 XML 之間進行轉換。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axis2 框架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 中的一個組件，主要負責</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>處理服務的元數據 (Metadata)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，例如 WSDL (Web Services Description Language) 和其他服務相關的描述資訊。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axis2 框架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 中的組件，主要用途是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>支援 MTOM (Message Transmission Optimization Mechanism)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的策略配置和管理。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axis2 框架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 中的一個組件，主要提供對 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SAAJ (SOAP with Attachments API for Java)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的支援。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axis2 框架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 中的一個工具組件，主要提供</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SOAP 訊息監控功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axis2 框架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 中的組件，提供 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spring 框架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 與 Axis2 的整合支援。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axis2 框架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 中用來處理 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTTP 傳輸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的組件。此模組支援 HTTP/HTTPS 傳輸協定，提供 Axis2 服務與客戶端之間的通訊能力。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axis2 框架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 中用於支援 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本地傳輸 (Local Transport)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的組件。該模組允許在 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同一個 JVM (Java Virtual Machine)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 內進行傳輸，而無需依賴網路層。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Axis2 框架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 中的一個組件，主要用於支援 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XMLBeans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作為資料綁定工具，將 XML 資料與 Java 類別進行映射和轉換。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Commons CLI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 專案的授權文件，通常包含 Apache </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>License 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的內容。Apache Commons CLI 是一個用於解析 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命令行參數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的 Java 工具庫。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Commons Codec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 專案的授權文件，該文件描述了 Apache </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>License 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 授權條款。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Commons FileUpload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 專案的授權文件，描述了適用於該工具的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache License 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Commons HttpClient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 專案的授權文件，內容基於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache License 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Commons IO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 專案的授權文件，內容基於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache License 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Commons Logging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 函式庫的一部分，提供 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>抽象化的日誌記錄機制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可讓應用程式靈活地與各種日誌系統整合。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Commons Logging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 專案的授權文件，內容基於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache License 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache HttpComponents Core</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 專案的授權文件，基於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache License 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 授權條款。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>JAX-RPC (Java API for XML-based RPC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的核心函式庫，主要用於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基於 XML 的遠端程序呼叫 (RPC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的 Web 服務開發。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IBM Toolbox for Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的一部分，專為 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IBM iSeries（AS/400）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 系統提供支援，允許 Java 應用程式與 IBM i 系統進行通訊和整合。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Log4j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 專案的授權文件，內容基於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache License 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>JavaMail API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 或相關電子郵件庫相關的授權文件，內容通常基於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Oracle Binary Code License</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 或 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache License 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，視該套件的來源而定。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Neethi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 專案的授權文件，基於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache License 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Woden API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 專案的授權文件，根據 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache License 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 提供使用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Woden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 專案的一部分，主要用於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WSDL 2.0 的解析和處理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，並包含 Woden 的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>具體實現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和共用程式碼。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Woden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 專案的授權文件，基於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache License 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 提供授權。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Woden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 專案的一部分，主要提供基於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DOM (Document Object Model)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WSDL 2.0 解析和實現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 支援。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache Woden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 專案中 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>woden-impl-dom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 模組的授權文件，基於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache License 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java 函式庫，提供操作 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WSDL 文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的 API，允許開發者解析、建立、編輯和處理 Web 服務描述文件 (WSDL)。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java 函式庫，主要用於讀取、解析及操作 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WSDL 1.1 文件，它是標準的 Web 服務開發工具，常用於各種 SOAP Web 服務框架 中。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Woodstox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> XML 處理器相關的授權文件。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Woodstox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是一個基於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StAX (Streaming API for XML)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的高效能 XML 處理工具。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">開源的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XML 資料綁定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 工具，允許開發者將 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XML 文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 與 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java 類</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 之間進行雙向轉換。它支援直接操作 XML Schema (XSD)，並根據模式自動生成 Java 類，簡化 XML 資料的讀取與寫入。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apache XmlSchema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 專案的授權文件，根據 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache License 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 提供授權。</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,6 +2252,29 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,7 +2297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -303,6 +2307,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -609,11 +2615,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="37.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
@@ -623,7 +2629,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,1604 +2643,1884 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="B42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="4"/>
+      <c r="B47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="4"/>
+      <c r="B50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="4"/>
+      <c r="C52" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>104</v>
+      </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="4"/>
+      <c r="B56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>106</v>
+      </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="4"/>
+      <c r="B58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" t="s">
+        <v>108</v>
+      </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>110</v>
+      </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" t="s">
+        <v>111</v>
+      </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="C67" t="s">
+        <v>171</v>
+      </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="4"/>
+      <c r="B68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" t="s">
+        <v>113</v>
+      </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="C69" t="s">
+        <v>172</v>
+      </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" t="s">
+        <v>114</v>
+      </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" t="s">
+        <v>116</v>
+      </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="C73" t="s">
+        <v>174</v>
+      </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" t="s">
+        <v>118</v>
+      </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6">
       <c r="A161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
       <c r="A165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
       <c r="A167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="A171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="A172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="A173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="A175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="A176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6">
       <c r="A196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6">
       <c r="A197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6">
       <c r="A198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6">
       <c r="A199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6">
       <c r="A200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6">
       <c r="A201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6">
       <c r="A202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6">
       <c r="A203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6">
       <c r="A204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6">
       <c r="A205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6">
       <c r="A206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6">
       <c r="A207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6">
       <c r="A208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6">
       <c r="A209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
